--- a/bin/lib/Astro_Libraries/lines_data.xlsx
+++ b/bin/lib/Astro_Libraries/lines_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="152">
   <si>
     <t xml:space="preserve">wavelength</t>
   </si>
@@ -365,112 +365,118 @@
     <t xml:space="preserve">7281A</t>
   </si>
   <si>
+    <t xml:space="preserve">Ar3_7136A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7136A</t>
+  </si>
+  <si>
     <t xml:space="preserve">O2_7319A</t>
   </si>
   <si>
     <t xml:space="preserve">7319.0</t>
   </si>
   <si>
+    <t xml:space="preserve">7319A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7319A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2_7330A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7330.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7330A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7330A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar3_7751A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7751A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_9069A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9068.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9069A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_9229A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9229.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9229A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_9531A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_9546A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_10830A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10830.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10830A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4341.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6563.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">7319</t>
   </si>
   <si>
-    <t xml:space="preserve">7319A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar3_7136A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7136A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_7330A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7330.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">7330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7330A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar3_7751A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7751A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3_9069A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9068.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9069A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_9229A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9229.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9229A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3_9531A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9531.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9531A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_9546A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9546.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9546A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_10830A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10830.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10830A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4341.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6563.0</t>
   </si>
 </sst>
 </file>
@@ -722,18 +728,18 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,17 +1446,17 @@
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="n">
+        <v>7135.79</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="n">
+        <v>7136</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
@@ -1464,16 +1470,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>7135.79</v>
-      </c>
       <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>7136</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>120</v>
@@ -1516,7 +1522,7 @@
         <v>7751</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>7751</v>
@@ -1652,7 +1658,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,19 +2193,19 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>16</v>
@@ -2216,7 +2222,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>124</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>7135.79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>7136</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
@@ -2397,7 +2403,7 @@
         <v>7751</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>7751</v>
